--- a/data/groups.xlsx
+++ b/data/groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albsad/work/Projects/sandbox/MSDAP/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albsad/work/Projects/dsp_nf-msdap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EAA60A-BA77-044B-87A0-C567E761EEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B816FF4-4597-1D4E-A965-E619EB1E0EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24780" yWindow="7500" windowWidth="27640" windowHeight="16940" xr2:uid="{D9862CFA-03E6-D44E-BA88-ACF460FE538D}"/>
+    <workbookView xWindow="4900" yWindow="1560" windowWidth="27640" windowHeight="16940" xr2:uid="{D9862CFA-03E6-D44E-BA88-ACF460FE538D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,40 +56,40 @@
     <t>c</t>
   </si>
   <si>
-    <t>20221221_MK_E1200_MVL_FAIMS_1CV_15cm_140min_1590_DIA_1ug_1</t>
-  </si>
-  <si>
-    <t>20221221_MK_E1200_MVL_FAIMS_1CV_15cm_140min_1590_DIA_1ug_2</t>
-  </si>
-  <si>
-    <t>20221221_MK_E1200_MVL_FAIMS_1CV_15cm_140min_1590_DIA_1ug_3</t>
-  </si>
-  <si>
-    <t>20221221_MK_E1200_MVL_FAIMS_1CV_15cm_140min_1590_DIA_1ug_4</t>
-  </si>
-  <si>
-    <t>20221221_MK_E1200_MVL_FAIMS_1CV_15cm_140min_1590_DIA_1ug_5</t>
-  </si>
-  <si>
-    <t>20221221_MK_E1200_MVL_FAIMS_1CV_15cm_140min_1590_DIA_1ug_6</t>
-  </si>
-  <si>
-    <t>20221221_MK_E1200_MVL_FAIMS_1CV_15cm_140min_1590_DIA_1ug_7</t>
-  </si>
-  <si>
-    <t>20221221_MK_E1200_MVL_FAIMS_1CV_15cm_140min_1590_DIA_1ug_8</t>
-  </si>
-  <si>
-    <t>20221221_MK_E1200_MVL_FAIMS_1CV_15cm_140min_1590_DIA_1ug_9</t>
-  </si>
-  <si>
-    <t>20221221_MK_E1200_MVL_FAIMS_1CV_15cm_140min_1590_DIA_1ug_10</t>
-  </si>
-  <si>
-    <t>20221221_MK_E1200_MVL_FAIMS_1CV_15cm_140min_1590_DIA_1ug_11</t>
-  </si>
-  <si>
-    <t>20221221_MK_E1200_MVL_FAIMS_1CV_15cm_140min_1590_DIA_1ug_12</t>
+    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_1</t>
+  </si>
+  <si>
+    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_2</t>
+  </si>
+  <si>
+    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_3</t>
+  </si>
+  <si>
+    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_4</t>
+  </si>
+  <si>
+    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_5</t>
+  </si>
+  <si>
+    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_6</t>
+  </si>
+  <si>
+    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_7</t>
+  </si>
+  <si>
+    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_8</t>
+  </si>
+  <si>
+    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_9</t>
+  </si>
+  <si>
+    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_10</t>
+  </si>
+  <si>
+    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_11</t>
+  </si>
+  <si>
+    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_12</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/groups.xlsx
+++ b/data/groups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albsad/work/Projects/dsp_nf-msdap/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbeje/cfb/dsp_nf-msdap/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B816FF4-4597-1D4E-A965-E619EB1E0EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766F214F-F509-CE4E-9FB8-BFAA76A48DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1560" windowWidth="27640" windowHeight="16940" xr2:uid="{D9862CFA-03E6-D44E-BA88-ACF460FE538D}"/>
+    <workbookView xWindow="2600" yWindow="1560" windowWidth="27640" windowHeight="16940" xr2:uid="{D9862CFA-03E6-D44E-BA88-ACF460FE538D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,40 +56,40 @@
     <t>c</t>
   </si>
   <si>
-    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_1</t>
-  </si>
-  <si>
-    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_2</t>
-  </si>
-  <si>
-    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_3</t>
-  </si>
-  <si>
-    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_4</t>
-  </si>
-  <si>
-    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_5</t>
-  </si>
-  <si>
-    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_6</t>
-  </si>
-  <si>
-    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_7</t>
-  </si>
-  <si>
-    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_8</t>
-  </si>
-  <si>
-    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_9</t>
-  </si>
-  <si>
-    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_10</t>
-  </si>
-  <si>
-    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_11</t>
-  </si>
-  <si>
-    <t>20221221_FAIMS_1CV_15cm_140min_1590_DIA_1ug_12</t>
+    <t>FAIMS_1CV_15cm_140min_1590_DIA_1ug_1</t>
+  </si>
+  <si>
+    <t>FAIMS_1CV_15cm_140min_1590_DIA_1ug_2</t>
+  </si>
+  <si>
+    <t>FAIMS_1CV_15cm_140min_1590_DIA_1ug_3</t>
+  </si>
+  <si>
+    <t>FAIMS_1CV_15cm_140min_1590_DIA_1ug_4</t>
+  </si>
+  <si>
+    <t>FAIMS_1CV_15cm_140min_1590_DIA_1ug_5</t>
+  </si>
+  <si>
+    <t>FAIMS_1CV_15cm_140min_1590_DIA_1ug_6</t>
+  </si>
+  <si>
+    <t>FAIMS_1CV_15cm_140min_1590_DIA_1ug_7</t>
+  </si>
+  <si>
+    <t>FAIMS_1CV_15cm_140min_1590_DIA_1ug_8</t>
+  </si>
+  <si>
+    <t>FAIMS_1CV_15cm_140min_1590_DIA_1ug_9</t>
+  </si>
+  <si>
+    <t>FAIMS_1CV_15cm_140min_1590_DIA_1ug_10</t>
+  </si>
+  <si>
+    <t>FAIMS_1CV_15cm_140min_1590_DIA_1ug_11</t>
+  </si>
+  <si>
+    <t>FAIMS_1CV_15cm_140min_1590_DIA_1ug_12</t>
   </si>
 </sst>
 </file>
@@ -105,10 +105,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF569CD6"/>
-      <name val="Menlo"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -471,7 +472,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
